--- a/PCLC Project/Assets/Cards/PCLC cards.xlsx
+++ b/PCLC Project/Assets/Cards/PCLC cards.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\PCLC project\PCLC project\PCLC-project-repo\PCLC Project\Assets\Cards\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD30B5-748F-4078-9B73-D7999EB6043F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="20370" yWindow="-10410" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -833,23 +842,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -859,7 +874,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -917,87 +932,58 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1187,28 +1173,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="13.86"/>
-    <col customWidth="1" min="4" max="4" width="92.0"/>
-    <col customWidth="1" min="5" max="5" width="41.14"/>
-    <col customWidth="1" min="7" max="7" width="12.29"/>
-    <col customWidth="1" min="8" max="8" width="41.14"/>
-    <col customWidth="1" min="10" max="10" width="12.29"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="92" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1243,15 +1234,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1260,27 +1251,25 @@
         <v>22</v>
       </c>
       <c r="F2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="I2" s="1"/>
       <c r="K2" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -1288,28 +1277,26 @@
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -1318,27 +1305,27 @@
         <v>27</v>
       </c>
       <c r="F4" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -1347,28 +1334,28 @@
         <v>30</v>
       </c>
       <c r="F5" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="K5" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -1377,28 +1364,28 @@
         <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="K6" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
@@ -1407,28 +1394,28 @@
         <v>30</v>
       </c>
       <c r="F7" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="K7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
@@ -1437,28 +1424,28 @@
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="K8" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>34</v>
@@ -1467,28 +1454,28 @@
         <v>30</v>
       </c>
       <c r="F9" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="K9" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>35</v>
@@ -1497,28 +1484,28 @@
         <v>30</v>
       </c>
       <c r="F10" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="K10" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
@@ -1527,28 +1514,28 @@
         <v>30</v>
       </c>
       <c r="F11" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="K11" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>37</v>
@@ -1557,7 +1544,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -1566,7 +1553,7 @@
         <v>39</v>
       </c>
       <c r="I12" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>11</v>
@@ -1575,15 +1562,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>40</v>
@@ -1592,7 +1579,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -1601,7 +1588,7 @@
         <v>42</v>
       </c>
       <c r="I13" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>13</v>
@@ -1610,15 +1597,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>43</v>
@@ -1627,28 +1614,28 @@
         <v>44</v>
       </c>
       <c r="F14" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I14" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="K14" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
@@ -1657,7 +1644,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>15</v>
@@ -1666,7 +1653,7 @@
         <v>47</v>
       </c>
       <c r="I15" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>18</v>
@@ -1675,15 +1662,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -1692,28 +1679,28 @@
         <v>49</v>
       </c>
       <c r="F16" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I16" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="K16" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>50</v>
@@ -1722,28 +1709,28 @@
         <v>51</v>
       </c>
       <c r="F17" s="4">
-        <v>2.01219227E8</v>
+        <v>201219227</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I17" s="4">
-        <v>2.01219227E8</v>
+        <v>201219227</v>
       </c>
       <c r="K17" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="C18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>52</v>
@@ -1752,28 +1739,28 @@
         <v>30</v>
       </c>
       <c r="F18" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="K18" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="C19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>53</v>
@@ -1782,7 +1769,7 @@
         <v>54</v>
       </c>
       <c r="F19" s="1">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>11</v>
@@ -1791,7 +1778,7 @@
         <v>55</v>
       </c>
       <c r="I19" s="1">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>56</v>
@@ -1800,15 +1787,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="C20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>57</v>
@@ -1817,28 +1804,28 @@
         <v>58</v>
       </c>
       <c r="F20" s="1">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I20" s="1">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="K20" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="C21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>59</v>
@@ -1847,28 +1834,28 @@
         <v>30</v>
       </c>
       <c r="F21" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="K21" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="C22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>60</v>
@@ -1877,7 +1864,7 @@
         <v>61</v>
       </c>
       <c r="F22" s="1">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>12</v>
@@ -1886,7 +1873,7 @@
         <v>62</v>
       </c>
       <c r="I22" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>13</v>
@@ -1895,15 +1882,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="C23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>63</v>
@@ -1912,7 +1899,7 @@
         <v>64</v>
       </c>
       <c r="F23" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
@@ -1921,7 +1908,7 @@
         <v>65</v>
       </c>
       <c r="I23" s="1">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>12</v>
@@ -1930,15 +1917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="C24" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>66</v>
@@ -1947,28 +1934,28 @@
         <v>67</v>
       </c>
       <c r="F24" s="1">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="I24" s="1">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="K24" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="C25" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>68</v>
@@ -1977,7 +1964,7 @@
         <v>69</v>
       </c>
       <c r="F25" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
@@ -1986,7 +1973,7 @@
         <v>70</v>
       </c>
       <c r="I25" s="1">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>11</v>
@@ -1995,15 +1982,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="C26" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>71</v>
@@ -2012,28 +1999,28 @@
         <v>72</v>
       </c>
       <c r="F26" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I26" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="K26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="C27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>73</v>
@@ -2042,28 +2029,28 @@
         <v>30</v>
       </c>
       <c r="F27" s="1">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="1">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="K27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="C28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>74</v>
@@ -2072,28 +2059,28 @@
         <v>30</v>
       </c>
       <c r="F28" s="1">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I28" s="1">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="K28" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="C29" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>75</v>
@@ -2102,28 +2089,28 @@
         <v>30</v>
       </c>
       <c r="F29" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I29" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="K29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="C30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>76</v>
@@ -2132,28 +2119,28 @@
         <v>30</v>
       </c>
       <c r="F30" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I30" s="1">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="K30" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="C31" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>78</v>
@@ -2162,28 +2149,28 @@
         <v>30</v>
       </c>
       <c r="F31" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="K31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="C32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>79</v>
@@ -2192,7 +2179,7 @@
         <v>80</v>
       </c>
       <c r="F32" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>14</v>
@@ -2201,7 +2188,7 @@
         <v>81</v>
       </c>
       <c r="I32" s="1">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>11</v>
@@ -2210,15 +2197,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="C33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>82</v>
@@ -2227,28 +2214,28 @@
         <v>83</v>
       </c>
       <c r="F33" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I33" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="K33" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="C34" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>84</v>
@@ -2257,28 +2244,28 @@
         <v>85</v>
       </c>
       <c r="F34" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I34" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="K34" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="C35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>86</v>
@@ -2287,28 +2274,28 @@
         <v>85</v>
       </c>
       <c r="F35" s="6">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I35" s="6">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="K35" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="C36" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>87</v>
@@ -2317,7 +2304,7 @@
         <v>88</v>
       </c>
       <c r="F36" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
@@ -2326,7 +2313,7 @@
         <v>89</v>
       </c>
       <c r="I36" s="1">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>13</v>
@@ -2335,15 +2322,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="C37" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>90</v>
@@ -2352,28 +2339,28 @@
         <v>30</v>
       </c>
       <c r="F37" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I37" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="K37" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="C38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>91</v>
@@ -2382,28 +2369,28 @@
         <v>30</v>
       </c>
       <c r="F38" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I38" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="K38" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="C39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>92</v>
@@ -2412,28 +2399,28 @@
         <v>30</v>
       </c>
       <c r="F39" s="1">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I39" s="1">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="K39" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="C40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>93</v>
@@ -2442,7 +2429,7 @@
         <v>94</v>
       </c>
       <c r="F40" s="1">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>12</v>
@@ -2451,7 +2438,7 @@
         <v>95</v>
       </c>
       <c r="I40" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>18</v>
@@ -2460,15 +2447,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="C41" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>96</v>
@@ -2477,28 +2464,28 @@
         <v>30</v>
       </c>
       <c r="F41" s="1">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I41" s="1">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="K41" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="C42" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>97</v>
@@ -2507,28 +2494,28 @@
         <v>30</v>
       </c>
       <c r="F42" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I42" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="K42" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="C43" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>98</v>
@@ -2537,28 +2524,28 @@
         <v>30</v>
       </c>
       <c r="F43" s="6">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="6">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="K43" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="C44" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>99</v>
@@ -2567,28 +2554,28 @@
         <v>30</v>
       </c>
       <c r="F44" s="1">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="1">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="K44" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="C45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>100</v>
@@ -2597,7 +2584,7 @@
         <v>101</v>
       </c>
       <c r="F45" s="1">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>18</v>
@@ -2606,7 +2593,7 @@
         <v>102</v>
       </c>
       <c r="I45" s="1">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>9</v>
@@ -2615,15 +2602,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="C46" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>103</v>
@@ -2632,7 +2619,7 @@
         <v>104</v>
       </c>
       <c r="F46" s="1">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>9</v>
@@ -2641,7 +2628,7 @@
         <v>105</v>
       </c>
       <c r="I46" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>106</v>
@@ -2650,15 +2637,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="C47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>107</v>
@@ -2667,28 +2654,28 @@
         <v>30</v>
       </c>
       <c r="F47" s="1">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I47" s="1">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="K47" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="C48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>108</v>
@@ -2697,28 +2684,28 @@
         <v>30</v>
       </c>
       <c r="F48" s="1">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I48" s="1">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="K48" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="C49" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>109</v>
@@ -2727,7 +2714,7 @@
         <v>110</v>
       </c>
       <c r="F49" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>15</v>
@@ -2736,7 +2723,7 @@
         <v>111</v>
       </c>
       <c r="I49" s="1">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>9</v>
@@ -2745,15 +2732,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="C50" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>112</v>
@@ -2762,28 +2749,28 @@
         <v>30</v>
       </c>
       <c r="F50" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I50" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="K50" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="C51" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>113</v>
@@ -2792,28 +2779,28 @@
         <v>30</v>
       </c>
       <c r="F51" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I51" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="K51" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="C52" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>114</v>
@@ -2822,28 +2809,28 @@
         <v>30</v>
       </c>
       <c r="F52" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I52" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="K52" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="C53" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>115</v>
@@ -2852,28 +2839,28 @@
         <v>30</v>
       </c>
       <c r="F53" s="1">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I53" s="1">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="K53" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="C54" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>116</v>
@@ -2882,28 +2869,28 @@
         <v>30</v>
       </c>
       <c r="F54" s="6">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I54" s="6">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="K54" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="C55" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>117</v>
@@ -2912,28 +2899,28 @@
         <v>30</v>
       </c>
       <c r="F55" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I55" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="K55" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="C56" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>118</v>
@@ -2942,7 +2929,7 @@
         <v>119</v>
       </c>
       <c r="F56" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>11</v>
@@ -2951,7 +2938,7 @@
         <v>120</v>
       </c>
       <c r="I56" s="1">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>13</v>
@@ -2960,15 +2947,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="C57" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>121</v>
@@ -2977,28 +2964,28 @@
         <v>30</v>
       </c>
       <c r="F57" s="1">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I57" s="1">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="K57" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="C58" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>122</v>
@@ -3007,28 +2994,28 @@
         <v>30</v>
       </c>
       <c r="F58" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I58" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="K58" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="C59" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>123</v>
@@ -3037,28 +3024,28 @@
         <v>30</v>
       </c>
       <c r="F59" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I59" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="K59" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="C60" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>124</v>
@@ -3067,28 +3054,28 @@
         <v>30</v>
       </c>
       <c r="F60" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I60" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="K60" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="C61" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>125</v>
@@ -3097,28 +3084,28 @@
         <v>30</v>
       </c>
       <c r="F61" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I61" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="K61" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="C62" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>126</v>
@@ -3127,28 +3114,28 @@
         <v>30</v>
       </c>
       <c r="F62" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I62" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="K62" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="C63" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>127</v>
@@ -3157,7 +3144,7 @@
         <v>128</v>
       </c>
       <c r="F63" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>12</v>
@@ -3166,7 +3153,7 @@
         <v>129</v>
       </c>
       <c r="I63" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>11</v>
@@ -3175,15 +3162,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="C64" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>130</v>
@@ -3192,28 +3179,28 @@
         <v>30</v>
       </c>
       <c r="F64" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I64" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="K64" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="C65" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>131</v>
@@ -3222,28 +3209,28 @@
         <v>30</v>
       </c>
       <c r="F65" s="10">
-        <v>3.12313314E8</v>
+        <v>312313314</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="10">
-        <v>3.12313314E8</v>
+        <v>312313314</v>
       </c>
       <c r="K65" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="C66" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>132</v>
@@ -3252,7 +3239,7 @@
         <v>133</v>
       </c>
       <c r="F66" s="12">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
@@ -3261,7 +3248,7 @@
         <v>134</v>
       </c>
       <c r="I66" s="12">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J66" s="13" t="s">
         <v>14</v>
@@ -3270,15 +3257,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B67" s="11">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="C67" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>132</v>
@@ -3287,7 +3274,7 @@
         <v>135</v>
       </c>
       <c r="F67" s="12">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>18</v>
@@ -3296,7 +3283,7 @@
         <v>136</v>
       </c>
       <c r="I67" s="12">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>14</v>
@@ -3305,15 +3292,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="C68" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>132</v>
@@ -3322,7 +3309,7 @@
         <v>137</v>
       </c>
       <c r="F68" s="12">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>15</v>
@@ -3331,7 +3318,7 @@
         <v>138</v>
       </c>
       <c r="I68" s="12">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>12</v>
@@ -3340,15 +3327,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B69" s="12">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="C69" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>139</v>
@@ -3357,28 +3344,28 @@
         <v>140</v>
       </c>
       <c r="F69" s="1">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I69" s="1">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="K69" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="C70" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>141</v>
@@ -3387,28 +3374,28 @@
         <v>30</v>
       </c>
       <c r="F70" s="1">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I70" s="1">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="K70" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="C71" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>142</v>
@@ -3417,28 +3404,28 @@
         <v>30</v>
       </c>
       <c r="F71" s="1">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I71" s="1">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="K71" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="C72" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>143</v>
@@ -3447,28 +3434,28 @@
         <v>30</v>
       </c>
       <c r="F72" s="1">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I72" s="1">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="K72" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="C73" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>144</v>
@@ -3477,28 +3464,28 @@
         <v>30</v>
       </c>
       <c r="F73" s="1">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I73" s="1">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="K73" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="C74" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>145</v>
@@ -3507,7 +3494,7 @@
         <v>146</v>
       </c>
       <c r="F74" s="1">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>18</v>
@@ -3516,7 +3503,7 @@
         <v>147</v>
       </c>
       <c r="I74" s="1">
-        <v>406.0</v>
+        <v>406</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>106</v>
@@ -3525,15 +3512,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>406.0</v>
+        <v>406</v>
       </c>
       <c r="C75" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>148</v>
@@ -3542,28 +3529,28 @@
         <v>30</v>
       </c>
       <c r="F75" s="1">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I75" s="1">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="K75" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="C76" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>149</v>
@@ -3572,7 +3559,7 @@
         <v>58</v>
       </c>
       <c r="F76" s="1">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>12</v>
@@ -3581,7 +3568,7 @@
         <v>150</v>
       </c>
       <c r="I76" s="1">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>11</v>
@@ -3590,15 +3577,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="C77" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>151</v>
@@ -3607,28 +3594,28 @@
         <v>30</v>
       </c>
       <c r="F77" s="1">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I77" s="1">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="K77" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="C78" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>152</v>
@@ -3637,7 +3624,7 @@
         <v>153</v>
       </c>
       <c r="F78" s="1">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>11</v>
@@ -3646,7 +3633,7 @@
         <v>154</v>
       </c>
       <c r="I78" s="1">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>18</v>
@@ -3655,15 +3642,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="C79" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>155</v>
@@ -3672,28 +3659,28 @@
         <v>30</v>
       </c>
       <c r="F79" s="1">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I79" s="1">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="K79" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="C80" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>156</v>
@@ -3720,15 +3707,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B81" s="14">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="C81" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>160</v>
@@ -3737,28 +3724,28 @@
         <v>30</v>
       </c>
       <c r="F81" s="1">
-        <v>501.0</v>
+        <v>501</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I81" s="1">
-        <v>501.0</v>
+        <v>501</v>
       </c>
       <c r="K81" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>501.0</v>
+        <v>501</v>
       </c>
       <c r="C82" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>161</v>
@@ -3767,28 +3754,28 @@
         <v>30</v>
       </c>
       <c r="F82" s="1">
-        <v>502.0</v>
+        <v>502</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I82" s="1">
-        <v>502.0</v>
+        <v>502</v>
       </c>
       <c r="K82" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>502.0</v>
+        <v>502</v>
       </c>
       <c r="C83" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>162</v>
@@ -3797,28 +3784,28 @@
         <v>30</v>
       </c>
       <c r="F83" s="1">
-        <v>503.0</v>
+        <v>503</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I83" s="1">
-        <v>503.0</v>
+        <v>503</v>
       </c>
       <c r="K83" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>503.0</v>
+        <v>503</v>
       </c>
       <c r="C84" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>163</v>
@@ -3827,7 +3814,7 @@
         <v>164</v>
       </c>
       <c r="F84" s="1">
-        <v>504.0</v>
+        <v>504</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>13</v>
@@ -3836,7 +3823,7 @@
         <v>165</v>
       </c>
       <c r="I84" s="1">
-        <v>504.0</v>
+        <v>504</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>15</v>
@@ -3845,15 +3832,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>504.0</v>
+        <v>504</v>
       </c>
       <c r="C85" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>166</v>
@@ -3862,28 +3849,28 @@
         <v>30</v>
       </c>
       <c r="F85" s="1">
-        <v>505.0</v>
+        <v>505</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I85" s="1">
-        <v>505.0</v>
+        <v>505</v>
       </c>
       <c r="K85" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>505.0</v>
+        <v>505</v>
       </c>
       <c r="C86" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>167</v>
@@ -3892,7 +3879,7 @@
         <v>168</v>
       </c>
       <c r="F86" s="1">
-        <v>506.0</v>
+        <v>506</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>9</v>
@@ -3901,7 +3888,7 @@
         <v>169</v>
       </c>
       <c r="I86" s="1">
-        <v>506.0</v>
+        <v>506</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>18</v>
@@ -3910,15 +3897,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>506.0</v>
+        <v>506</v>
       </c>
       <c r="C87" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>167</v>
@@ -3927,7 +3914,7 @@
         <v>170</v>
       </c>
       <c r="F87" s="1">
-        <v>507.0</v>
+        <v>507</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>15</v>
@@ -3936,7 +3923,7 @@
         <v>171</v>
       </c>
       <c r="I87" s="1">
-        <v>507.0</v>
+        <v>507</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>9</v>
@@ -3945,15 +3932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>507.0</v>
+        <v>507</v>
       </c>
       <c r="C88" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>167</v>
@@ -3962,7 +3949,7 @@
         <v>172</v>
       </c>
       <c r="F88" s="1">
-        <v>508.0</v>
+        <v>508</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>12</v>
@@ -3971,7 +3958,7 @@
         <v>173</v>
       </c>
       <c r="I88" s="1">
-        <v>508.0</v>
+        <v>508</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>14</v>
@@ -3980,15 +3967,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>508.0</v>
+        <v>508</v>
       </c>
       <c r="C89" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>167</v>
@@ -3997,7 +3984,7 @@
         <v>174</v>
       </c>
       <c r="F89" s="1">
-        <v>509.0</v>
+        <v>509</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>9</v>
@@ -4006,7 +3993,7 @@
         <v>175</v>
       </c>
       <c r="I89" s="1">
-        <v>509.0</v>
+        <v>509</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>12</v>
@@ -4015,15 +4002,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>509.0</v>
+        <v>509</v>
       </c>
       <c r="C90" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>167</v>
@@ -4032,7 +4019,7 @@
         <v>176</v>
       </c>
       <c r="F90" s="1">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>14</v>
@@ -4041,7 +4028,7 @@
         <v>177</v>
       </c>
       <c r="I90" s="1">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>15</v>
@@ -4050,15 +4037,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="C91" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>178</v>
@@ -4067,28 +4054,28 @@
         <v>30</v>
       </c>
       <c r="F91" s="15">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I91" s="15">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="K91" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B92" s="14">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="C92" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>179</v>
@@ -4097,28 +4084,28 @@
         <v>30</v>
       </c>
       <c r="F92" s="1">
-        <v>512.0</v>
+        <v>512</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I92" s="1">
-        <v>512.0</v>
+        <v>512</v>
       </c>
       <c r="K92" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>512.0</v>
+        <v>512</v>
       </c>
       <c r="C93" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>180</v>
@@ -4127,28 +4114,28 @@
         <v>30</v>
       </c>
       <c r="F93" s="1">
-        <v>513.0</v>
+        <v>513</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I93" s="1">
-        <v>513.0</v>
+        <v>513</v>
       </c>
       <c r="K93" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>513.0</v>
+        <v>513</v>
       </c>
       <c r="C94" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>181</v>
@@ -4157,28 +4144,28 @@
         <v>30</v>
       </c>
       <c r="F94" s="1">
-        <v>514.0</v>
+        <v>514</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I94" s="1">
-        <v>514.0</v>
+        <v>514</v>
       </c>
       <c r="K94" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>514.0</v>
+        <v>514</v>
       </c>
       <c r="C95" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>182</v>
@@ -4187,28 +4174,28 @@
         <v>30</v>
       </c>
       <c r="F95" s="1">
-        <v>515.0</v>
+        <v>515</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I95" s="1">
-        <v>515.0</v>
+        <v>515</v>
       </c>
       <c r="K95" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>515.0</v>
+        <v>515</v>
       </c>
       <c r="C96" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>183</v>
@@ -4217,7 +4204,7 @@
         <v>184</v>
       </c>
       <c r="F96" s="1">
-        <v>516.0</v>
+        <v>516</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>15</v>
@@ -4226,7 +4213,7 @@
         <v>185</v>
       </c>
       <c r="I96" s="1">
-        <v>522.0</v>
+        <v>522</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>11</v>
@@ -4235,15 +4222,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>516.0</v>
+        <v>516</v>
       </c>
       <c r="C97" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>186</v>
@@ -4252,28 +4239,28 @@
         <v>30</v>
       </c>
       <c r="F97" s="1">
-        <v>517.0</v>
+        <v>517</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I97" s="1">
-        <v>517.0</v>
+        <v>517</v>
       </c>
       <c r="K97" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>517.0</v>
+        <v>517</v>
       </c>
       <c r="C98" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>187</v>
@@ -4282,7 +4269,7 @@
         <v>188</v>
       </c>
       <c r="F98" s="1">
-        <v>518.0</v>
+        <v>518</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>9</v>
@@ -4291,7 +4278,7 @@
         <v>189</v>
       </c>
       <c r="I98" s="1">
-        <v>519.0</v>
+        <v>519</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>106</v>
@@ -4300,15 +4287,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>518.0</v>
+        <v>518</v>
       </c>
       <c r="C99" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>190</v>
@@ -4317,28 +4304,28 @@
         <v>30</v>
       </c>
       <c r="F99" s="1">
-        <v>519.0</v>
+        <v>519</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I99" s="1">
-        <v>519.0</v>
+        <v>519</v>
       </c>
       <c r="K99" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>519.0</v>
+        <v>519</v>
       </c>
       <c r="C100" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>191</v>
@@ -4347,7 +4334,7 @@
         <v>192</v>
       </c>
       <c r="F100" s="1">
-        <v>521.0</v>
+        <v>521</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>12</v>
@@ -4356,7 +4343,7 @@
         <v>193</v>
       </c>
       <c r="I100" s="1">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>13</v>
@@ -4365,15 +4352,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="C101" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>194</v>
@@ -4382,28 +4369,28 @@
         <v>192</v>
       </c>
       <c r="F101" s="1">
-        <v>521.0</v>
+        <v>521</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
         <v>192</v>
       </c>
       <c r="I101" s="1">
-        <v>521.0</v>
+        <v>521</v>
       </c>
       <c r="K101" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>521.0</v>
+        <v>521</v>
       </c>
       <c r="C102" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>195</v>
@@ -4412,28 +4399,28 @@
         <v>30</v>
       </c>
       <c r="F102" s="15">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I102" s="15">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="K102" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>522.0</v>
+        <v>522</v>
       </c>
       <c r="C103" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>196</v>
@@ -4442,7 +4429,7 @@
         <v>197</v>
       </c>
       <c r="F103" s="1">
-        <v>523.0</v>
+        <v>523</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>15</v>
@@ -4451,7 +4438,7 @@
         <v>198</v>
       </c>
       <c r="I103" s="1">
-        <v>524.0</v>
+        <v>524</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>14</v>
@@ -4460,15 +4447,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>523.0</v>
+        <v>523</v>
       </c>
       <c r="C104" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>199</v>
@@ -4477,28 +4464,28 @@
         <v>30</v>
       </c>
       <c r="F104" s="1">
-        <v>526.0</v>
+        <v>526</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I104" s="1">
-        <v>526.0</v>
+        <v>526</v>
       </c>
       <c r="K104" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>524.0</v>
+        <v>524</v>
       </c>
       <c r="C105" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>200</v>
@@ -4507,7 +4494,7 @@
         <v>30</v>
       </c>
       <c r="F105" s="1">
-        <v>525.0</v>
+        <v>525</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>14</v>
@@ -4516,7 +4503,7 @@
         <v>30</v>
       </c>
       <c r="I105" s="1">
-        <v>525.0</v>
+        <v>525</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>14</v>
@@ -4525,15 +4512,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>525.0</v>
+        <v>525</v>
       </c>
       <c r="C106" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>201</v>
@@ -4542,28 +4529,28 @@
         <v>30</v>
       </c>
       <c r="F106" s="1">
-        <v>526.0</v>
+        <v>526</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I106" s="1">
-        <v>526.0</v>
+        <v>526</v>
       </c>
       <c r="K106" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>526.0</v>
+        <v>526</v>
       </c>
       <c r="C107" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>202</v>
@@ -4572,28 +4559,28 @@
         <v>30</v>
       </c>
       <c r="F107" s="1">
-        <v>527.0</v>
+        <v>527</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I107" s="1">
-        <v>527.0</v>
+        <v>527</v>
       </c>
       <c r="K107" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>527.0</v>
+        <v>527</v>
       </c>
       <c r="C108" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>203</v>
@@ -4602,7 +4589,7 @@
         <v>204</v>
       </c>
       <c r="F108" s="1">
-        <v>528.0</v>
+        <v>528</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>11</v>
@@ -4611,7 +4598,7 @@
         <v>205</v>
       </c>
       <c r="I108" s="1">
-        <v>531.0</v>
+        <v>531</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>15</v>
@@ -4620,15 +4607,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>528.0</v>
+        <v>528</v>
       </c>
       <c r="C109" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>206</v>
@@ -4637,7 +4624,7 @@
         <v>207</v>
       </c>
       <c r="F109" s="1">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>13</v>
@@ -4646,7 +4633,7 @@
         <v>208</v>
       </c>
       <c r="I109" s="1">
-        <v>529.0</v>
+        <v>529</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>106</v>
@@ -4655,15 +4642,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>529.0</v>
+        <v>529</v>
       </c>
       <c r="C110" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>209</v>
@@ -4672,28 +4659,28 @@
         <v>30</v>
       </c>
       <c r="F110" s="15">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I110" s="15">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="K110" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="C111" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>210</v>
@@ -4702,28 +4689,28 @@
         <v>30</v>
       </c>
       <c r="F111" s="15">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I111" s="15">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="K111" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1">
-        <v>531.0</v>
+        <v>531</v>
       </c>
       <c r="C112" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>211</v>
@@ -4732,28 +4719,28 @@
         <v>30</v>
       </c>
       <c r="F112" s="1">
-        <v>532.0</v>
+        <v>532</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I112" s="1">
-        <v>532.0</v>
+        <v>532</v>
       </c>
       <c r="K112" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1">
-        <v>532.0</v>
+        <v>532</v>
       </c>
       <c r="C113" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>212</v>
@@ -4762,28 +4749,28 @@
         <v>30</v>
       </c>
       <c r="F113" s="1">
-        <v>519.0</v>
+        <v>519</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I113" s="1">
-        <v>519.0</v>
+        <v>519</v>
       </c>
       <c r="K113" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B114" s="14">
-        <v>533.0</v>
+        <v>533</v>
       </c>
       <c r="C114" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>213</v>
@@ -4792,28 +4779,28 @@
         <v>30</v>
       </c>
       <c r="F114" s="1">
-        <v>534.0</v>
+        <v>534</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I114" s="1">
-        <v>534.0</v>
+        <v>534</v>
       </c>
       <c r="K114" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1">
-        <v>534.0</v>
+        <v>534</v>
       </c>
       <c r="C115" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>214</v>
@@ -4822,28 +4809,28 @@
         <v>30</v>
       </c>
       <c r="F115" s="1">
-        <v>535.0</v>
+        <v>535</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I115" s="1">
-        <v>535.0</v>
+        <v>535</v>
       </c>
       <c r="K115" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1">
-        <v>535.0</v>
+        <v>535</v>
       </c>
       <c r="C116" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>215</v>
@@ -4852,28 +4839,28 @@
         <v>30</v>
       </c>
       <c r="F116" s="1">
-        <v>536.0</v>
+        <v>536</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I116" s="1">
-        <v>536.0</v>
+        <v>536</v>
       </c>
       <c r="K116" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1">
-        <v>536.0</v>
+        <v>536</v>
       </c>
       <c r="C117" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>216</v>
@@ -4882,7 +4869,7 @@
         <v>217</v>
       </c>
       <c r="F117" s="1">
-        <v>538.0</v>
+        <v>538</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>12</v>
@@ -4891,7 +4878,7 @@
         <v>218</v>
       </c>
       <c r="I117" s="1">
-        <v>537.0</v>
+        <v>537</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>11</v>
@@ -4900,15 +4887,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1">
-        <v>537.0</v>
+        <v>537</v>
       </c>
       <c r="C118" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>219</v>
@@ -4917,28 +4904,28 @@
         <v>30</v>
       </c>
       <c r="F118" s="15">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I118" s="15">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="K118" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1">
-        <v>538.0</v>
+        <v>538</v>
       </c>
       <c r="C119" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>220</v>
@@ -4947,28 +4934,28 @@
         <v>30</v>
       </c>
       <c r="F119" s="1">
-        <v>539.0</v>
+        <v>539</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I119" s="1">
-        <v>539.0</v>
+        <v>539</v>
       </c>
       <c r="K119" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1">
-        <v>539.0</v>
+        <v>539</v>
       </c>
       <c r="C120" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>221</v>
@@ -4977,7 +4964,7 @@
         <v>222</v>
       </c>
       <c r="F120" s="1">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>14</v>
@@ -4986,7 +4973,7 @@
         <v>223</v>
       </c>
       <c r="I120" s="1">
-        <v>541.0</v>
+        <v>541</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>9</v>
@@ -4995,15 +4982,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="C121" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>224</v>
@@ -5012,28 +4999,28 @@
         <v>30</v>
       </c>
       <c r="F121" s="1">
-        <v>541.0</v>
+        <v>541</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I121" s="1">
-        <v>541.0</v>
+        <v>541</v>
       </c>
       <c r="K121" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1">
-        <v>541.0</v>
+        <v>541</v>
       </c>
       <c r="C122" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>225</v>
@@ -5042,28 +5029,28 @@
         <v>30</v>
       </c>
       <c r="F122" s="1">
-        <v>519.0</v>
+        <v>519</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I122" s="1">
-        <v>519.0</v>
+        <v>519</v>
       </c>
       <c r="K122" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B123" s="16">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="C123" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>226</v>
@@ -5072,28 +5059,28 @@
         <v>30</v>
       </c>
       <c r="F123" s="1">
-        <v>602.0</v>
+        <v>602</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I123" s="1">
-        <v>602.0</v>
+        <v>602</v>
       </c>
       <c r="K123" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1">
-        <v>602.0</v>
+        <v>602</v>
       </c>
       <c r="C124" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>227</v>
@@ -5102,28 +5089,28 @@
         <v>30</v>
       </c>
       <c r="F124" s="1">
-        <v>603.0</v>
+        <v>603</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I124" s="1">
-        <v>603.0</v>
+        <v>603</v>
       </c>
       <c r="K124" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1">
-        <v>603.0</v>
+        <v>603</v>
       </c>
       <c r="C125" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>228</v>
@@ -5132,28 +5119,28 @@
         <v>30</v>
       </c>
       <c r="F125" s="1">
-        <v>604.0</v>
+        <v>604</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I125" s="1">
-        <v>604.0</v>
+        <v>604</v>
       </c>
       <c r="K125" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1">
-        <v>604.0</v>
+        <v>604</v>
       </c>
       <c r="C126" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>229</v>
@@ -5162,7 +5149,7 @@
         <v>230</v>
       </c>
       <c r="F126" s="1">
-        <v>605.0</v>
+        <v>605</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>13</v>
@@ -5171,7 +5158,7 @@
         <v>231</v>
       </c>
       <c r="I126" s="1">
-        <v>605.0</v>
+        <v>605</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>18</v>
@@ -5180,15 +5167,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1">
-        <v>605.0</v>
+        <v>605</v>
       </c>
       <c r="C127" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>232</v>
@@ -5197,7 +5184,7 @@
         <v>233</v>
       </c>
       <c r="F127" s="1">
-        <v>607.0</v>
+        <v>607</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>12</v>
@@ -5206,7 +5193,7 @@
         <v>234</v>
       </c>
       <c r="I127" s="1">
-        <v>606.0</v>
+        <v>606</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>15</v>
@@ -5215,15 +5202,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1">
-        <v>606.0</v>
+        <v>606</v>
       </c>
       <c r="C128" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>235</v>
@@ -5232,28 +5219,28 @@
         <v>30</v>
       </c>
       <c r="F128" s="17">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I128" s="17">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="K128" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1">
-        <v>607.0</v>
+        <v>607</v>
       </c>
       <c r="C129" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>236</v>
@@ -5262,28 +5249,28 @@
         <v>30</v>
       </c>
       <c r="F129" s="17">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I129" s="17">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="K129" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B130" s="16">
-        <v>608.0</v>
+        <v>608</v>
       </c>
       <c r="C130" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>237</v>
@@ -5292,28 +5279,28 @@
         <v>30</v>
       </c>
       <c r="F130" s="1">
-        <v>609.0</v>
+        <v>609</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I130" s="1">
-        <v>609.0</v>
+        <v>609</v>
       </c>
       <c r="K130" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1">
-        <v>609.0</v>
+        <v>609</v>
       </c>
       <c r="C131" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>238</v>
@@ -5322,28 +5309,28 @@
         <v>30</v>
       </c>
       <c r="F131" s="1">
-        <v>610.0</v>
+        <v>610</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I131" s="1">
-        <v>610.0</v>
+        <v>610</v>
       </c>
       <c r="K131" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1">
-        <v>610.0</v>
+        <v>610</v>
       </c>
       <c r="C132" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>239</v>
@@ -5352,7 +5339,7 @@
         <v>240</v>
       </c>
       <c r="F132" s="1">
-        <v>614.0</v>
+        <v>614</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>18</v>
@@ -5361,7 +5348,7 @@
         <v>241</v>
       </c>
       <c r="I132" s="1">
-        <v>611.0</v>
+        <v>611</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>13</v>
@@ -5370,15 +5357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1">
-        <v>611.0</v>
+        <v>611</v>
       </c>
       <c r="C133" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>242</v>
@@ -5387,7 +5374,7 @@
         <v>243</v>
       </c>
       <c r="F133" s="1">
-        <v>614.0</v>
+        <v>614</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>11</v>
@@ -5396,7 +5383,7 @@
         <v>244</v>
       </c>
       <c r="I133" s="1">
-        <v>612.0</v>
+        <v>612</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>13</v>
@@ -5405,15 +5392,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1">
-        <v>612.0</v>
+        <v>612</v>
       </c>
       <c r="C134" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>245</v>
@@ -5422,28 +5409,28 @@
         <v>30</v>
       </c>
       <c r="F134" s="1">
-        <v>613.0</v>
+        <v>613</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I134" s="1">
-        <v>613.0</v>
+        <v>613</v>
       </c>
       <c r="K134" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1">
-        <v>613.0</v>
+        <v>613</v>
       </c>
       <c r="C135" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>246</v>
@@ -5452,28 +5439,28 @@
         <v>30</v>
       </c>
       <c r="F135" s="17">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I135" s="17">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="K135" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1">
-        <v>614.0</v>
+        <v>614</v>
       </c>
       <c r="C136" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>247</v>
@@ -5482,28 +5469,28 @@
         <v>30</v>
       </c>
       <c r="F136" s="1">
-        <v>615.0</v>
+        <v>615</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I136" s="1">
-        <v>615.0</v>
+        <v>615</v>
       </c>
       <c r="K136" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1">
-        <v>615.0</v>
+        <v>615</v>
       </c>
       <c r="C137" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>248</v>
@@ -5512,7 +5499,7 @@
         <v>249</v>
       </c>
       <c r="F137" s="1">
-        <v>617.0</v>
+        <v>617</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>14</v>
@@ -5521,7 +5508,7 @@
         <v>250</v>
       </c>
       <c r="I137" s="1">
-        <v>616.0</v>
+        <v>616</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>15</v>
@@ -5530,15 +5517,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1">
-        <v>616.0</v>
+        <v>616</v>
       </c>
       <c r="C138" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>251</v>
@@ -5547,28 +5534,28 @@
         <v>30</v>
       </c>
       <c r="F138" s="1">
-        <v>617.0</v>
+        <v>617</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I138" s="1">
-        <v>617.0</v>
+        <v>617</v>
       </c>
       <c r="K138" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1">
-        <v>617.0</v>
+        <v>617</v>
       </c>
       <c r="C139" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>252</v>
@@ -5577,28 +5564,28 @@
         <v>30</v>
       </c>
       <c r="F139" s="1">
-        <v>618.0</v>
+        <v>618</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I139" s="1">
-        <v>618.0</v>
+        <v>618</v>
       </c>
       <c r="K139" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
-        <v>618.0</v>
+        <v>618</v>
       </c>
       <c r="C140" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>253</v>
@@ -5607,7 +5594,7 @@
         <v>254</v>
       </c>
       <c r="F140" s="1">
-        <v>620.0</v>
+        <v>620</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>11</v>
@@ -5616,7 +5603,7 @@
         <v>255</v>
       </c>
       <c r="I140" s="1">
-        <v>619.0</v>
+        <v>619</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>9</v>
@@ -5625,15 +5612,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1">
-        <v>619.0</v>
+        <v>619</v>
       </c>
       <c r="C141" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>256</v>
@@ -5642,28 +5629,28 @@
         <v>30</v>
       </c>
       <c r="F141" s="1">
-        <v>621.0</v>
+        <v>621</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I141" s="1">
-        <v>621.0</v>
+        <v>621</v>
       </c>
       <c r="K141" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1">
-        <v>620.0</v>
+        <v>620</v>
       </c>
       <c r="C142" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>257</v>
@@ -5672,28 +5659,28 @@
         <v>30</v>
       </c>
       <c r="F142" s="1">
-        <v>621.0</v>
+        <v>621</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I142" s="1">
-        <v>621.0</v>
+        <v>621</v>
       </c>
       <c r="K142" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1">
-        <v>621.0</v>
+        <v>621</v>
       </c>
       <c r="C143" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>258</v>
@@ -5702,28 +5689,28 @@
         <v>30</v>
       </c>
       <c r="F143" s="1">
-        <v>622.0</v>
+        <v>622</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I143" s="1">
-        <v>622.0</v>
+        <v>622</v>
       </c>
       <c r="K143" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1">
-        <v>622.0</v>
+        <v>622</v>
       </c>
       <c r="C144" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>259</v>
@@ -5732,28 +5719,28 @@
         <v>30</v>
       </c>
       <c r="F144" s="17">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I144" s="17">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="K144" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B145" s="18">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="C145" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>260</v>
@@ -5762,28 +5749,28 @@
         <v>30</v>
       </c>
       <c r="F145" s="1">
-        <v>702.0</v>
+        <v>702</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I145" s="1">
-        <v>702.0</v>
+        <v>702</v>
       </c>
       <c r="K145" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1">
-        <v>702.0</v>
+        <v>702</v>
       </c>
       <c r="C146" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>261</v>
@@ -5792,28 +5779,28 @@
         <v>30</v>
       </c>
       <c r="F146" s="1">
-        <v>703.0</v>
+        <v>703</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I146" s="1">
-        <v>703.0</v>
+        <v>703</v>
       </c>
       <c r="K146" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1">
-        <v>703.0</v>
+        <v>703</v>
       </c>
       <c r="C147" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>262</v>
@@ -5822,28 +5809,28 @@
         <v>30</v>
       </c>
       <c r="F147" s="1">
-        <v>704.0</v>
+        <v>704</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I147" s="1">
-        <v>704.0</v>
+        <v>704</v>
       </c>
       <c r="K147" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1">
-        <v>704.0</v>
+        <v>704</v>
       </c>
       <c r="C148" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>263</v>
@@ -5852,28 +5839,28 @@
         <v>30</v>
       </c>
       <c r="F148" s="1">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I148" s="1">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="K148" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="C149" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>264</v>
@@ -5882,28 +5869,28 @@
         <v>30</v>
       </c>
       <c r="F149" s="1">
-        <v>706.0</v>
+        <v>706</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I149" s="1">
-        <v>706.0</v>
+        <v>706</v>
       </c>
       <c r="K149" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1">
-        <v>706.0</v>
+        <v>706</v>
       </c>
       <c r="C150" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>265</v>
@@ -5912,28 +5899,28 @@
         <v>30</v>
       </c>
       <c r="F150" s="1">
-        <v>707.0</v>
+        <v>707</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I150" s="1">
-        <v>707.0</v>
+        <v>707</v>
       </c>
       <c r="K150" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1">
-        <v>707.0</v>
+        <v>707</v>
       </c>
       <c r="C151" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>266</v>
@@ -5942,28 +5929,28 @@
         <v>30</v>
       </c>
       <c r="F151" s="1">
-        <v>708.0</v>
+        <v>708</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I151" s="1">
-        <v>708.0</v>
+        <v>708</v>
       </c>
       <c r="K151" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1">
-        <v>708.0</v>
+        <v>708</v>
       </c>
       <c r="C152" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>267</v>
@@ -5972,28 +5959,28 @@
         <v>30</v>
       </c>
       <c r="F152" s="1">
-        <v>709.0</v>
+        <v>709</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I152" s="1">
-        <v>709.0</v>
+        <v>709</v>
       </c>
       <c r="K152" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1">
-        <v>709.0</v>
+        <v>709</v>
       </c>
       <c r="C153" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>268</v>
@@ -6002,28 +5989,28 @@
         <v>30</v>
       </c>
       <c r="F153" s="1">
-        <v>710.0</v>
+        <v>710</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I153" s="1">
-        <v>710.0</v>
+        <v>710</v>
       </c>
       <c r="K153" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1">
-        <v>710.0</v>
+        <v>710</v>
       </c>
       <c r="C154" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>269</v>
@@ -6032,28 +6019,28 @@
         <v>270</v>
       </c>
       <c r="F154" s="2">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
         <v>270</v>
       </c>
       <c r="I154" s="2">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="K154" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="C155" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>271</v>
@@ -6062,105 +6049,106 @@
         <v>271</v>
       </c>
       <c r="F155" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>271</v>
       </c>
       <c r="I155" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K155" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>